--- a/data/trans_dic/P54_A_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_4_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido (tasa de respuesta: 96,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>23,62; 52,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>1,27; 7,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>1,33; 6,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>21,21; 41,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>1,4; 8,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,97; 7,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>24,37; 43,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,86; 6,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,15; 5,7</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>12,42; 22,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,59; 15,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,84; 5,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>16,82; 26,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,08; 5,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,39; 6,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>16,27; 23,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,86; 9,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,46; 5,23</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>6,41; 15,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>1,0; 4,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>8,39; 17,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,8; 3,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>8,64; 14,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,12; 1,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,16; 3,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,33%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>14,72; 21,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,37; 7,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,31; 8,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>18,92; 25,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,88; 3,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,6; 7,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>17,45; 21,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>1,94; 4,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,76; 6,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17,44%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20,97%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15,0; 20,1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 6,46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 4,65</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18,7; 23,17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 2,93</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 4,56</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17,37; 20,7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 4,24</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 4,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido (tasa de respuesta: 96,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>64080</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11896</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14694</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>52195</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15380</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23447</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>116275</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>27276</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>38141</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>44056; 98091</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4294; 26688</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5996; 29681</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>36737; 71533</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5901; 35877</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11373; 40577</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>87657; 157031</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14154; 51986</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22135; 58554</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>99728</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>53709</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39004</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>137650</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33495</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>45856</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>237378</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>87204</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>84860</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>72573; 133159</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23973; 147525</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21353; 67680</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>104127; 166255</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20474; 58358</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>28101; 71717</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>195793; 283062</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>54517; 182293</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>57593; 122341</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>44909</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17399</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>61450</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1755</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17056</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>106359</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6160</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>34455</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>27986; 69434</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15528</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8238; 33783</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>41296; 85213</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8901</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7336; 32811</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>80229; 138673</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1746; 18752</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20125; 53023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>323938</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>56923</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33864</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>367787</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24016</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31837</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>691725</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>80938</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>65701</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>271908; 390083</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>33957; 106116</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18446; 70740</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>315701; 418711</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12030; 44235</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18713; 50281</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>613509; 770096</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>54118; 129522</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>41860; 99200</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>483.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>532656</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>126933</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>104962</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>619081</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>74645</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>118196</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1151737</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>201578</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>223158</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>458107; 614037</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>81745; 220203</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>74110; 150246</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>552123; 684086</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>50323; 103665</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>91402; 154514</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1043661; 1243464</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>152724; 294570</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>180891; 277773</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>